--- a/Scrums/CS-2450 Sprint Backlog.xlsx
+++ b/Scrums/CS-2450 Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ddeniro\gitrep_2450_GroupProject\Scrums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8540F6CC-17E8-4C58-A4ED-57E5761C6639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642A0938-A257-4C6A-9DA8-8D027BF6107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1230" windowWidth="29040" windowHeight="16050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="1575" windowWidth="29040" windowHeight="16050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t xml:space="preserve">Task </t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Complete</t>
-  </si>
-  <si>
-    <t>In-progress</t>
   </si>
 </sst>
 </file>
@@ -395,16 +392,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -898,7 +895,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:W1"/>
+      <selection pane="bottomLeft" activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1092,12 +1089,20 @@
         <v>22</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1412,7 +1417,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
@@ -1420,8 +1425,12 @@
       <c r="G14" s="9">
         <v>0</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -1498,7 +1507,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="9">
         <v>2</v>
@@ -1509,7 +1518,9 @@
       <c r="H16" s="9">
         <v>1</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -1896,7 +1907,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5">
         <f>SUM(F3:F27)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G28" s="5">
         <f>SUM(G4:G27)</f>
@@ -1904,11 +1915,11 @@
       </c>
       <c r="H28" s="5">
         <f t="shared" ref="H28:M28" si="0">SUM(H3:H27)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="0"/>
